--- a/backend/data/농약조합 표 및 작용기작.xlsx
+++ b/backend/data/농약조합 표 및 작용기작.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pesticide-app\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046BCDFC-A64E-4708-A1FB-BEE41A72E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F726F-A9DE-43BA-84AC-42868983C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{025C76A8-AC1F-4B5B-933B-BF97C3EF24ED}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{025C76A8-AC1F-4B5B-933B-BF97C3EF24ED}"/>
   </bookViews>
   <sheets>
     <sheet name="작용기작 조합" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="367">
   <si>
     <t>A\B</t>
   </si>
@@ -91,9 +91,6 @@
     <t>작용부위</t>
   </si>
   <si>
-    <t>해충에 대한 작용 원리</t>
-  </si>
-  <si>
     <t>AChE 억제제 (카바메이트/유기인계)</t>
   </si>
   <si>
@@ -457,11 +454,690 @@
     <t>Isoflucypram</t>
   </si>
   <si>
+    <t>가1</t>
+  </si>
+  <si>
+    <t>핵산 합성 저해 - RNA 중합효소 I 저해</t>
+  </si>
+  <si>
+    <t>RNA 중합효소 I</t>
+  </si>
+  <si>
+    <t>RNA 중합효소 I의 활성을 억제</t>
+  </si>
+  <si>
+    <t>벤랄락실, 메탈락실, 메페녹삼, 퓨랄락실, 옥사딕실</t>
+  </si>
+  <si>
+    <t>가2</t>
+  </si>
+  <si>
+    <t>핵산 합성 저해 - 아데노신 디아미나제 저해</t>
+  </si>
+  <si>
+    <t>아데노신 디아미나제 효소</t>
+  </si>
+  <si>
+    <t>아데노신이 이노신으로 전환되는 것을 방해</t>
+  </si>
+  <si>
+    <t>뷰피리메이트, 디미티리몰, 에티리몰</t>
+  </si>
+  <si>
+    <t>가3</t>
+  </si>
+  <si>
+    <t>핵산 합성 저해 - 핵산 활성 저해</t>
+  </si>
+  <si>
+    <t>핵산 활성 효소</t>
+  </si>
+  <si>
+    <t>핵산 활성 과정을 저해</t>
+  </si>
+  <si>
+    <t>하이멕사졸</t>
+  </si>
+  <si>
+    <t>가4</t>
+  </si>
+  <si>
+    <t>핵산 합성 저해 - DNA 토포이소머레이즈 II 저해</t>
+  </si>
+  <si>
+    <t>DNA 토포이소머레이즈 II</t>
+  </si>
+  <si>
+    <t>DNA 토포이소머레이즈의 활성을 억제</t>
+  </si>
+  <si>
+    <t>옥솔린산</t>
+  </si>
+  <si>
+    <t>나1</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 미세소관 생합성 저해 (벤지미다졸계)</t>
+  </si>
+  <si>
+    <t>미세소관 (β-튜불린)</t>
+  </si>
+  <si>
+    <t>미세소관 폴리머화 억제</t>
+  </si>
+  <si>
+    <t>벤모닐, 카르벤다짐, 티아벤다졸</t>
+  </si>
+  <si>
+    <t>나2</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 미세소관 생합성 저해 (페닐카바메이트계)</t>
+  </si>
+  <si>
+    <t>미세소관 조립 억제</t>
+  </si>
+  <si>
+    <t>디에토펜카브</t>
+  </si>
+  <si>
+    <t>나3</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 미세소관 생합성 저해 (톨루아마이드계)</t>
+  </si>
+  <si>
+    <t>족마사이드, 에타복삼</t>
+  </si>
+  <si>
+    <t>나4</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 세포분열 저해 (페닐우레아계)</t>
+  </si>
+  <si>
+    <t>세포분열 기구</t>
+  </si>
+  <si>
+    <t>방추사 형성 억제</t>
+  </si>
+  <si>
+    <t>펜사이큐론</t>
+  </si>
+  <si>
+    <t>나5</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 스펙트린 유사 단백질 정위 저해 (벤자마이드계)</t>
+  </si>
+  <si>
+    <t>스펙트린 유사 단백질</t>
+  </si>
+  <si>
+    <t>스펙트린 정위 기능 억제</t>
+  </si>
+  <si>
+    <t>플루오피콜라이드</t>
+  </si>
+  <si>
+    <t>나6</t>
+  </si>
+  <si>
+    <t>세포분열 저해 - 액틴/미오신/피브린 저해 (시아노아크릴계)</t>
+  </si>
+  <si>
+    <t>액틴·미오신</t>
+  </si>
+  <si>
+    <t>세포 골격 기능 억제</t>
+  </si>
+  <si>
+    <t>국내 등록 제품 없음</t>
+  </si>
+  <si>
+    <t>다1</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 복합체 I (NADH 산화환원효소) 저해</t>
+  </si>
+  <si>
+    <t>NADH 산화환원효소 활성을 억제</t>
+  </si>
+  <si>
+    <t>다2</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 복합체 II (숙신산 탈수소효소) 저해</t>
+  </si>
+  <si>
+    <t>미토콘드리아 복합체 II</t>
+  </si>
+  <si>
+    <t>숙신산 탈수소효소 기능 억제</t>
+  </si>
+  <si>
+    <t>메프로닐, 플루톨라닐, 옥시카복신, 카복신, 티플루자마이드</t>
+  </si>
+  <si>
+    <t>다3</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 복합체 III Qo site 저해</t>
+  </si>
+  <si>
+    <t>시토크롬 bc1 복합체 Qo site</t>
+  </si>
+  <si>
+    <t>전자전달 차단</t>
+  </si>
+  <si>
+    <t>아족시스트로빈, 피콕시스트로빈, 피라클로스트로빈, 크레속심메틸, 오리사스토로빈, 파목사돈, 페나미돈, 피리벤카브</t>
+  </si>
+  <si>
+    <t>다4</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 복합체 III Qi site 저해</t>
+  </si>
+  <si>
+    <t>시토크롬 bc1 복합체 Qi site</t>
+  </si>
+  <si>
+    <t>시아조파미드, 아미설브롬</t>
+  </si>
+  <si>
+    <t>다5</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 인산화 반응 저해</t>
+  </si>
+  <si>
+    <t>산화적 인산화 경로</t>
+  </si>
+  <si>
+    <t>인산화 반응 억제</t>
+  </si>
+  <si>
+    <t>정보 없음</t>
+  </si>
+  <si>
+    <t>다6</t>
+  </si>
+  <si>
+    <t>호흡 저해 - ATP 생성효소 저해</t>
+  </si>
+  <si>
+    <t>ATP 합성효소</t>
+  </si>
+  <si>
+    <t>ATP 합성 억제</t>
+  </si>
+  <si>
+    <t>다7</t>
+  </si>
+  <si>
+    <t>호흡 저해 - ATP 수송 저해</t>
+  </si>
+  <si>
+    <t>미토콘드리아 내막 수송체</t>
+  </si>
+  <si>
+    <t>ATP 이동 억제</t>
+  </si>
+  <si>
+    <t>다8</t>
+  </si>
+  <si>
+    <t>호흡 저해 - 복합체 III 추가 저해</t>
+  </si>
+  <si>
+    <t>시토크롬 bc1 복합체</t>
+  </si>
+  <si>
+    <t>전자전달 추가 저해</t>
+  </si>
+  <si>
+    <t>아메톡트라딘</t>
+  </si>
+  <si>
+    <t>라1</t>
+  </si>
+  <si>
+    <t>단백질 합성 저해 - 메티오닌 생합성 저해</t>
+  </si>
+  <si>
+    <t>메티오닌 합성 효소</t>
+  </si>
+  <si>
+    <t>메티오닌 생합성 억제</t>
+  </si>
+  <si>
+    <t>사이프로디닐, 피리메타닐</t>
+  </si>
+  <si>
+    <t>라2</t>
+  </si>
+  <si>
+    <t>단백질 합성 저해 - 신장기 및 종료기 저해</t>
+  </si>
+  <si>
+    <t>리보솜 신장 및 종결 인자</t>
+  </si>
+  <si>
+    <t>단백질 신장 및 종료기 억제</t>
+  </si>
+  <si>
+    <t>라3</t>
+  </si>
+  <si>
+    <t>단백질 합성 저해 - 개시기 저해 (헥소피라노실계)</t>
+  </si>
+  <si>
+    <t>리보솜 개시 복합체</t>
+  </si>
+  <si>
+    <t>개시 복합체 형성 억제</t>
+  </si>
+  <si>
+    <t>라4</t>
+  </si>
+  <si>
+    <t>단백질 합성 저해 - 개시기 저해 (글루코피라노실계)</t>
+  </si>
+  <si>
+    <t>라5</t>
+  </si>
+  <si>
+    <t>단백질 합성 저해 - 신장기 저해 (테트라사이클린계)</t>
+  </si>
+  <si>
+    <t>리보솜 신장 복합체</t>
+  </si>
+  <si>
+    <t>리보솜 신장 억제</t>
+  </si>
+  <si>
+    <t>마1</t>
+  </si>
+  <si>
+    <t>신호전달 저해 - 작용기구 불명 (아자나프탈렌계)</t>
+  </si>
+  <si>
+    <t>미확인</t>
+  </si>
+  <si>
+    <t>불명</t>
+  </si>
+  <si>
+    <t>마2</t>
+  </si>
+  <si>
+    <t>신호전달 저해 - MAP 효소 저해 (플루디옥소닐)</t>
+  </si>
+  <si>
+    <t>MAP 신호전달 효소</t>
+  </si>
+  <si>
+    <t>삼투압 신호경로 억제</t>
+  </si>
+  <si>
+    <t>플루디옥소닐</t>
+  </si>
+  <si>
+    <t>마3</t>
+  </si>
+  <si>
+    <t>신호전달 저해 - MAP 효소 저해 (이프로디온·프로사이미돈)</t>
+  </si>
+  <si>
+    <t>이프로디온, 프로사이미돈</t>
+  </si>
+  <si>
+    <t>바2</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 인지질 생합성·메틸전이효소 저해</t>
+  </si>
+  <si>
+    <t>인지질 생합성 효소</t>
+  </si>
+  <si>
+    <t>인지질 생합성 억제</t>
+  </si>
+  <si>
+    <t>이프로벤포스</t>
+  </si>
+  <si>
+    <t>바3</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 세포 과산화 유도</t>
+  </si>
+  <si>
+    <t>세포 과산화 유도</t>
+  </si>
+  <si>
+    <t>에트리디아졸</t>
+  </si>
+  <si>
+    <t>바4</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 세포막 투과성 저해 (카바메이트계)</t>
+  </si>
+  <si>
+    <t>막 투과성 변화</t>
+  </si>
+  <si>
+    <t>바6</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 미생물에 의한 세포막 기능 교란</t>
+  </si>
+  <si>
+    <t>미생물 단백질 분비로 교란</t>
+  </si>
+  <si>
+    <t>Bacillus subtilis</t>
+  </si>
+  <si>
+    <t>바7</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 세포막 기능 저해</t>
+  </si>
+  <si>
+    <t>막 기능 억제</t>
+  </si>
+  <si>
+    <t>바8</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 에르고스테롤 결합 저해</t>
+  </si>
+  <si>
+    <t>에르고스테롤</t>
+  </si>
+  <si>
+    <t>에르고스테롤 결합 방해</t>
+  </si>
+  <si>
+    <t>바9</t>
+  </si>
+  <si>
+    <t>막 기능 저해 - 지질 항상성·이동 저해</t>
+  </si>
+  <si>
+    <t>지질 수송체</t>
+  </si>
+  <si>
+    <t>지질 항상성 교란</t>
+  </si>
+  <si>
+    <t>사1</t>
+  </si>
+  <si>
+    <t>스테롤 생합성 저해 - 탈메틸효소 저해 (DMI/IMI)</t>
+  </si>
+  <si>
+    <t>14α-탈메틸화 효소</t>
+  </si>
+  <si>
+    <t>에르고스테롤 생합성 차단</t>
+  </si>
+  <si>
+    <t>프로피코나졸, 테부코나졸</t>
+  </si>
+  <si>
+    <t>사2</t>
+  </si>
+  <si>
+    <t>스테롤 생합성 저해 - 이성질화 효소 저해</t>
+  </si>
+  <si>
+    <t>이성질화 효소</t>
+  </si>
+  <si>
+    <t>에르고스테롤 전환 차단</t>
+  </si>
+  <si>
+    <t>사3</t>
+  </si>
+  <si>
+    <t>스테롤 생합성 저해 - 케토환원효소 저해</t>
+  </si>
+  <si>
+    <t>3-keto 환원효소</t>
+  </si>
+  <si>
+    <t>케토환원 단계 억제</t>
+  </si>
+  <si>
+    <t>펜헥사미드, 펜피라자민</t>
+  </si>
+  <si>
+    <t>사4</t>
+  </si>
+  <si>
+    <t>스테롤 생합성 저해 - 스쿠알렌 에폭시데이즈 저해</t>
+  </si>
+  <si>
+    <t>스쿠알렌 에폭시데이즈</t>
+  </si>
+  <si>
+    <t>스쿠알렌→스쿠알렌 옥사이드 차단</t>
+  </si>
+  <si>
+    <t>테르비나핀, 나프티핀</t>
+  </si>
+  <si>
+    <t>아3</t>
+  </si>
+  <si>
+    <t>세포벽 생합성 저해 - 트레할라제 저해</t>
+  </si>
+  <si>
+    <t>트레할라제</t>
+  </si>
+  <si>
+    <t>글루코스 생성 억제</t>
+  </si>
+  <si>
+    <t>발리다마이신</t>
+  </si>
+  <si>
+    <t>아4</t>
+  </si>
+  <si>
+    <t>세포벽 생합성 저해 - 키틴 합성 저해</t>
+  </si>
+  <si>
+    <t>키틴 합성 효소</t>
+  </si>
+  <si>
+    <t>키틴 생합성 억제</t>
+  </si>
+  <si>
+    <t>폴리옥신</t>
+  </si>
+  <si>
+    <t>아5</t>
+  </si>
+  <si>
+    <t>세포벽 생합성 저해 - 셀룰로오스 합성 저해</t>
+  </si>
+  <si>
+    <t>셀룰로오스 합성 효소</t>
+  </si>
+  <si>
+    <t>셀룰로오스 생합성 억제</t>
+  </si>
+  <si>
+    <t>디메토모르프, 벤티아발리카브, 발리페날레이트</t>
+  </si>
+  <si>
+    <t>자1</t>
+  </si>
+  <si>
+    <t>멜라닌 합성 저해 - 환원효소 저해</t>
+  </si>
+  <si>
+    <t>환원효소</t>
+  </si>
+  <si>
+    <t>멜라닌 전구체 환원 억제</t>
+  </si>
+  <si>
+    <t>트리사이클라졸</t>
+  </si>
+  <si>
+    <t>자2</t>
+  </si>
+  <si>
+    <t>멜라닌 합성 저해 - 탈수소효소 저해</t>
+  </si>
+  <si>
+    <t>탈수소효소</t>
+  </si>
+  <si>
+    <t>멜라닌 경로 차단</t>
+  </si>
+  <si>
+    <t>페녹사닐</t>
+  </si>
+  <si>
+    <t>자3</t>
+  </si>
+  <si>
+    <t>멜라닌 합성 저해 - 폴리케티드 합성 저해</t>
+  </si>
+  <si>
+    <t>폴리케티드 합성 효소</t>
+  </si>
+  <si>
+    <t>폴리케티드 체계 억제</t>
+  </si>
+  <si>
+    <t>톨프로카브</t>
+  </si>
+  <si>
+    <t>차1</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 살리실산 유사작용</t>
+  </si>
+  <si>
+    <t>SA 신호경로</t>
+  </si>
+  <si>
+    <t>식물 방어 기작 유도</t>
+  </si>
+  <si>
+    <t>아시벤졸라에스메틸</t>
+  </si>
+  <si>
+    <t>차2</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 벤즈이소티아졸계 작용</t>
+  </si>
+  <si>
+    <t>방어유도</t>
+  </si>
+  <si>
+    <t>프로베나졸</t>
+  </si>
+  <si>
+    <t>차3</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 티아디아졸카복사마이드계</t>
+  </si>
+  <si>
+    <t>티아디아졸카복사마이드계 화합물</t>
+  </si>
+  <si>
+    <t>차4</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 천연 화합물</t>
+  </si>
+  <si>
+    <t>식물 유래 천연 화합물</t>
+  </si>
+  <si>
+    <t>차5</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 식물 추출물</t>
+  </si>
+  <si>
+    <t>플랜트 추출물</t>
+  </si>
+  <si>
+    <t>차6</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 미생물</t>
+  </si>
+  <si>
+    <t>차7</t>
+  </si>
+  <si>
+    <t>기주식물 방어유도 - 포스포네이트계</t>
+  </si>
+  <si>
+    <t>포세틸알루미늄, 칼륨포스파이트</t>
+  </si>
+  <si>
+    <t>카</t>
+  </si>
+  <si>
+    <t>다점 접촉작용</t>
+  </si>
+  <si>
+    <t>다중 표적</t>
+  </si>
+  <si>
+    <t>비특이적 접촉독 작용</t>
+  </si>
+  <si>
+    <t>황, 수산화구리, 비소산</t>
+  </si>
+  <si>
+    <t>생1</t>
+  </si>
+  <si>
+    <t>생물학적 제제 - 식물 추출물</t>
+  </si>
+  <si>
+    <t>다양</t>
+  </si>
+  <si>
+    <t>식물 저항성 유도 등</t>
+  </si>
+  <si>
+    <t>식물 추출물</t>
+  </si>
+  <si>
+    <t>생2</t>
+  </si>
+  <si>
+    <t>생물학적 제제 - 미생물</t>
+  </si>
+  <si>
+    <t>경쟁, 항균성, 저항성 유도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작용기작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기작명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">작용기작 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1441,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC4DB4-ADB9-477D-8703-04E536CD03B1}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,19 +2133,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,13 +2170,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -1511,16 +2187,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,16 +2204,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,16 +2221,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1562,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -1579,16 +2255,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1596,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,16 +2289,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,16 +2306,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,16 +2323,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,16 +2340,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,16 +2357,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,16 +2374,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,16 +2391,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1732,16 +2408,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,16 +2425,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1766,13 +2442,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1783,16 +2459,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,16 +2476,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1817,13 +2493,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>10</v>
@@ -1834,16 +2510,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1851,16 +2527,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1868,16 +2544,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,16 +2561,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1902,16 +2578,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1919,16 +2595,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,13 +2612,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>14</v>
@@ -1953,16 +2629,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,16 +2646,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1987,16 +2663,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2004,16 +2680,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,16 +2697,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2041,13 +2717,914 @@
         <v>15</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="7" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>138</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
